--- a/UClient/Assets/UAssets/Table/Excel/Template.xlsx
+++ b/UClient/Assets/UAssets/Table/Excel/Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cc\Desktop\work\pIII\client\Unity\Assets\FastEngine\Scripts\Core\Excel2Table\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fasthro/Documents/GitHub/UFramework/UClient/Assets/UAssets/Table/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4EC595-451F-F341-96FD-88A8E5B6F84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -258,9 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i18n</t>
-  </si>
-  <si>
     <t>language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,18 +275,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arrayi18n</t>
-  </si>
-  <si>
     <t>多语言model:多语言key,多语言model:多语言key</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayLanguage</t>
+  </si>
+  <si>
+    <t>Language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,6 +492,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -526,6 +544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,38 +736,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
     <col min="10" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="13.1640625" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="57.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="57.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.6640625" style="1" customWidth="1"/>
     <col min="23" max="23" width="49" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -794,13 +828,13 @@
         <v>46</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="18">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -832,7 +866,7 @@
         <v>26</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>27</v>
@@ -862,13 +896,13 @@
         <v>39</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="18">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -900,7 +934,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>28</v>
@@ -936,7 +970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -968,7 +1002,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>0</v>
@@ -998,7 +1032,7 @@
         <v>58</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>61</v>
@@ -1007,8 +1041,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
-      <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,i18n,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,Arrayi18n,Ignore"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,Language,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,ArrayLanguage,Ignore"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UClient/Assets/UAssets/Table/Excel/Template.xlsx
+++ b/UClient/Assets/UAssets/Table/Excel/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23919"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fasthro/Documents/GitHub/UFramework/UClient/Assets/UAssets/Table/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\UFramework\UClient\Assets\UAssets\Table\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4EC595-451F-F341-96FD-88A8E5B6F84C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756E834-3C2F-497E-8CB3-11445D17123C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -20,20 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>键值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,9 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述2</t>
-  </si>
-  <si>
     <t>描述3</t>
   </si>
   <si>
@@ -72,105 +61,6 @@
     <t>描述11</t>
   </si>
   <si>
-    <t>Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayByte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayByte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayInt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayFloat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayDouble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayBoolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayBoolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayVector2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayVector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述12</t>
   </si>
   <si>
@@ -189,45 +79,10 @@
     <t>描述17</t>
   </si>
   <si>
-    <t>描述18</t>
-  </si>
-  <si>
-    <t>ArrayLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射雕英雄传,天龙八部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1,1.2,1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1,2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a,b,cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,60 +91,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3|2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注释项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ignore</t>
-  </si>
-  <si>
     <t>注释不会被导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Comment(名称无所谓)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言model:多语言key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>languages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多语言model:多语言key,多语言model:多语言key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayLanguage</t>
-  </si>
-  <si>
-    <t>Language</t>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>long[]</t>
+  </si>
+  <si>
+    <t>byte[]</t>
+  </si>
+  <si>
+    <t>float[]</t>
+  </si>
+  <si>
+    <t>double[]</t>
+  </si>
+  <si>
+    <t>bool[]</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>Vector2[]</t>
+  </si>
+  <si>
+    <t>Vector3[]</t>
+  </si>
+  <si>
+    <t>langs</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>field1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field2</t>
+  </si>
+  <si>
+    <t>field4</t>
+  </si>
+  <si>
+    <t>field5</t>
+  </si>
+  <si>
+    <t>field6</t>
+  </si>
+  <si>
+    <t>field7</t>
+  </si>
+  <si>
+    <t>field8</t>
+  </si>
+  <si>
+    <t>field9</t>
+  </si>
+  <si>
+    <t>field10</t>
+  </si>
+  <si>
+    <t>field11</t>
+  </si>
+  <si>
+    <t>field12</t>
+  </si>
+  <si>
+    <t>field13</t>
+  </si>
+  <si>
+    <t>field14</t>
+  </si>
+  <si>
+    <t>field15</t>
+  </si>
+  <si>
+    <t>field16</t>
+  </si>
+  <si>
+    <t>field17</t>
+  </si>
+  <si>
+    <t>field18</t>
+  </si>
+  <si>
+    <t>field19</t>
+  </si>
+  <si>
+    <t>uframework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2.5,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3.4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uframework,table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4|2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model:key|model:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ignore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,240 +695,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="13.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="57.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="49" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="23" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="49" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="18">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>59</v>
+      <c r="S3" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="18">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="18">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -978,71 +906,62 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F4" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="R4" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Byte,Int,Long,Float,Double,String,Boolean,Vector2,Vector3,Language,ArrayByte,ArrayInt,ArrayLong,ArrayFloat,ArrayDouble,ArrayString,ArrayBoolean,ArrayVector2,ArrayVector3,ArrayLanguage,Ignore"</formula1>
+      <formula1>"byte,int,long,float,double,bool,string,Vector2,Vector3,lang,ignore,byte[],int[],long[],float[],double[],bool[],string[],Vector2[],Vector3[],langs"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UClient/Assets/UAssets/Table/Excel/Template.xlsx
+++ b/UClient/Assets/UAssets/Table/Excel/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\UFramework\UClient\Assets\UAssets\Table\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fasthro/Documents/GitHub/UFramework/UClient/Assets/UAssets/Table/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756E834-3C2F-497E-8CB3-11445D17123C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF4C338-9C18-CB49-BF8E-E0E4A345B419}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,48 +49,6 @@
     <t>描述7</t>
   </si>
   <si>
-    <t>描述8</t>
-  </si>
-  <si>
-    <t>描述9</t>
-  </si>
-  <si>
-    <t>描述10</t>
-  </si>
-  <si>
-    <t>描述11</t>
-  </si>
-  <si>
-    <t>描述12</t>
-  </si>
-  <si>
-    <t>描述13</t>
-  </si>
-  <si>
-    <t>描述14</t>
-  </si>
-  <si>
-    <t>描述15</t>
-  </si>
-  <si>
-    <t>描述16</t>
-  </si>
-  <si>
-    <t>描述17</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2|2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注释项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>byte</t>
   </si>
   <si>
@@ -124,130 +78,90 @@
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>long[]</t>
-  </si>
-  <si>
-    <t>byte[]</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>double[]</t>
-  </si>
-  <si>
-    <t>bool[]</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>Vector2[]</t>
-  </si>
-  <si>
-    <t>Vector3[]</t>
-  </si>
-  <si>
-    <t>langs</t>
-  </si>
-  <si>
-    <t>lang</t>
-  </si>
-  <si>
-    <t>field1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field2</t>
-  </si>
-  <si>
-    <t>field4</t>
-  </si>
-  <si>
-    <t>field5</t>
-  </si>
-  <si>
-    <t>field6</t>
-  </si>
-  <si>
-    <t>field7</t>
-  </si>
-  <si>
-    <t>field8</t>
-  </si>
-  <si>
-    <t>field9</t>
-  </si>
-  <si>
-    <t>field10</t>
-  </si>
-  <si>
-    <t>field11</t>
-  </si>
-  <si>
-    <t>field12</t>
-  </si>
-  <si>
-    <t>field13</t>
-  </si>
-  <si>
-    <t>field14</t>
-  </si>
-  <si>
-    <t>field15</t>
-  </si>
-  <si>
-    <t>field16</t>
-  </si>
-  <si>
-    <t>field17</t>
-  </si>
-  <si>
-    <t>field18</t>
-  </si>
-  <si>
-    <t>field19</t>
-  </si>
-  <si>
     <t>uframework</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2.5,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3.4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uframework,table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4|2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model:key|model:key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ignore</t>
+  </si>
+  <si>
+    <t>描述7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_tring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_color32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,23,45,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Color32</t>
+  </si>
+  <si>
+    <t>Vector3</t>
+  </si>
+  <si>
+    <t>Vector2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,36 +609,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="23" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="23.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="49" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="7" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="49" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -747,158 +651,95 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="18">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="18">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>21</v>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -918,50 +759,29 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"byte,int,long,float,double,bool,string,Vector2,Vector3,lang,ignore,byte[],int[],long[],float[],double[],bool[],string[],Vector2[],Vector3[],langs"</formula1>
+      <formula1>"byte,int,long,float,double,bool,string,Vector2,Vector3,Color,Color32,byte[],int[],long[],float[],double[],bool[],string[],Vector2[],Vector3[],Color[],Color32[]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UClient/Assets/UAssets/Table/Excel/Template.xlsx
+++ b/UClient/Assets/UAssets/Table/Excel/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fasthro/Documents/GitHub/UFramework/UClient/Assets/UAssets/Table/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hero\Documents\Github\UFramework\UClient\Assets\UAssets\Table\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF4C338-9C18-CB49-BF8E-E0E4A345B419}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA306272-78C5-44A4-A62D-3D6E602054C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,26 +609,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
     <col min="7" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="49" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="18">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -666,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="18">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -701,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="18">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -739,7 +739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -774,6 +774,44 @@
         <v>33</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
